--- a/workload.xlsx
+++ b/workload.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanz\Documents\GitHub\Group04\MediaApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD8A9D29-3D78-42F0-B3A8-3509529E965E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848C2BE8-5DEF-403D-AF56-33FF71D34DAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6327" yWindow="687" windowWidth="13680" windowHeight="8420" xr2:uid="{7BC07620-923D-416A-9D18-BE5AD6AD2AE1}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{7BC07620-923D-416A-9D18-BE5AD6AD2AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>NewsController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer Frontend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin Frontend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,15 +129,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,14 +169,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,86 +572,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BFDD44-4111-483F-827E-9D880403D6D8}">
-  <dimension ref="A2:E12"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.1171875" customWidth="1"/>
+    <col min="1" max="1" width="16.76171875" customWidth="1"/>
     <col min="2" max="2" width="18.1171875" customWidth="1"/>
     <col min="3" max="3" width="12.17578125" customWidth="1"/>
     <col min="5" max="5" width="21.703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="10"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="11"/>
+      <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanz\Documents\GitHub\Group04\MediaApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848C2BE8-5DEF-403D-AF56-33FF71D34DAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0EA9F2-F3EE-4BE2-9AD6-6A09576916E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{7BC07620-923D-416A-9D18-BE5AD6AD2AE1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,30 @@
   </si>
   <si>
     <t>Backend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tumula A.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madhu N.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuan Zhong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker Hub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +181,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +310,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -264,6 +336,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -576,7 +653,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -594,7 +671,9 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -602,7 +681,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="15"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -610,7 +689,7 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="15"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -618,7 +697,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="15"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -626,42 +705,41 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="15"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="15"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="15"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
-      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1"/>
@@ -669,7 +747,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1"/>
@@ -688,60 +766,82 @@
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C13" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C18" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C1:C7"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanz\Documents\GitHub\Group04\MediaApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0EA9F2-F3EE-4BE2-9AD6-6A09576916E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818478C2-33A3-46BE-8ED0-A20AFED71569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{7BC07620-923D-416A-9D18-BE5AD6AD2AE1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Docker Hub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lei J.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuan Zhong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,12 +193,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +306,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -309,25 +324,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,7 +665,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -665,124 +677,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="16"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="16"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="16"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="9"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="9"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="18"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
@@ -791,57 +807,61 @@
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="C1:C7"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanz\Documents\GitHub\Group04\MediaApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818478C2-33A3-46BE-8ED0-A20AFED71569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA96B20-63AB-41CC-BFB5-7E4EFC8EB411}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{7BC07620-923D-416A-9D18-BE5AD6AD2AE1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Customer Frontend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Admin Frontend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,18 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Deployement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nginx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Docker Hub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lei J.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,6 +125,42 @@
   </si>
   <si>
     <t>Yuan Zhong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer frontend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google map service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register-login service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>working</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer news feeding service</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,12 +218,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -216,12 +230,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -275,13 +301,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,46 +407,73 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,203 +799,252 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.76171875" customWidth="1"/>
-    <col min="2" max="2" width="18.1171875" customWidth="1"/>
+    <col min="2" max="2" width="27.52734375" customWidth="1"/>
     <col min="3" max="3" width="12.17578125" customWidth="1"/>
     <col min="5" max="5" width="21.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>15</v>
+      <c r="A1" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="C1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="12"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>26</v>
+      <c r="C8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="B10" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="10" t="s">
-        <v>16</v>
+      <c r="A13" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="C13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="10"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="14"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="10"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="14"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="17" t="s">
-        <v>17</v>
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="12"/>
+      <c r="C18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="7"/>
       <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="7"/>
       <c r="B20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A1:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:C7"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanz\Documents\GitHub\Group04\MediaApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA96B20-63AB-41CC-BFB5-7E4EFC8EB411}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B820D-C441-4172-BD6B-A3833248792E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{7BC07620-923D-416A-9D18-BE5AD6AD2AE1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,15 +152,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>working</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>customer news feeding service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontend unit test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontend function test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backend unit test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backend function test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integration test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumula A., Madhu N., Lei J., Yuan Z. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +274,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -366,19 +412,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -388,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,73 +440,79 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,255 +835,305 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BFDD44-4111-483F-827E-9D880403D6D8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.76171875" customWidth="1"/>
     <col min="2" max="2" width="27.52734375" customWidth="1"/>
-    <col min="3" max="3" width="12.17578125" customWidth="1"/>
+    <col min="3" max="3" width="19.46875" customWidth="1"/>
     <col min="5" max="5" width="21.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="3"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="7"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="7"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="7"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="7"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>30</v>
+      <c r="D11" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="7"/>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="13"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="7"/>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="18"/>
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5" t="s">
+      <c r="D19" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="13"/>
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="13"/>
+      <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
       <c r="C21" s="16"/>
+      <c r="D21" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="13"/>
+      <c r="B24" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="13"/>
+      <c r="B25" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="13"/>
+      <c r="B26" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:C7"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C1:C7"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanz\Documents\GitHub\Group04\MediaApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanz\Documents\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B820D-C441-4172-BD6B-A3833248792E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9A020-5258-4D1B-99B5-AAD6A007086A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{7BC07620-923D-416A-9D18-BE5AD6AD2AE1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,26 @@
   </si>
   <si>
     <t xml:space="preserve">Tumula A., Madhu N., Lei J., Yuan Z. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http interceptor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news data for db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anuragreddy Gunreddy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,36 +284,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -351,7 +383,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -363,6 +397,21 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -371,48 +420,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -421,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,85 +448,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,7 +855,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BFDD44-4111-483F-827E-9D880403D6D8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -845,295 +865,357 @@
   <cols>
     <col min="1" max="1" width="16.76171875" customWidth="1"/>
     <col min="2" max="2" width="27.52734375" customWidth="1"/>
-    <col min="3" max="3" width="19.46875" customWidth="1"/>
+    <col min="3" max="3" width="20.46875" customWidth="1"/>
     <col min="5" max="5" width="21.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="13"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="3"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="13"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="24"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="24"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="18"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="13"/>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="17"/>
+      <c r="B16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="17"/>
+      <c r="B17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="17" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="18"/>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="23"/>
+      <c r="B19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="13" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="24"/>
+      <c r="B20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="B20" s="5" t="s">
+      <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="21"/>
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="5" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="21"/>
+      <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="13" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="13"/>
-      <c r="B23" s="28" t="s">
+      <c r="D24" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="27"/>
+      <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="13"/>
-      <c r="B24" s="28" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="27"/>
+      <c r="B26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="13"/>
-      <c r="B25" s="28" t="s">
+      <c r="D26" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="27"/>
+      <c r="B27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="13"/>
-      <c r="B26" s="28" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="27"/>
+      <c r="B28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="3"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="13">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="C1:C7"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A1:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workload.xlsx
+++ b/workload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanz\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanz\Documents\GitHub\Group04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9A020-5258-4D1B-99B5-AAD6A007086A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F4A54D-C8B9-45F7-9B6C-A20B737F49AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{7BC07620-923D-416A-9D18-BE5AD6AD2AE1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>Anuragreddy Gunreddy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket.io</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,9 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -493,15 +502,6 @@
     <xf numFmtId="10" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -533,6 +533,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,10 +867,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BFDD44-4111-483F-827E-9D880403D6D8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -870,352 +882,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="23"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="23"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="24"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="17"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="17"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="23"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="24"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="21"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="21"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="A24" s="22"/>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="27"/>
-      <c r="B25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="A25" s="22"/>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="27"/>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="23"/>
+      <c r="B28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="23"/>
+      <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C29" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="27"/>
-      <c r="B27" s="11" t="s">
+      <c r="D29" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="23"/>
+      <c r="B30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="27"/>
-      <c r="B28" s="11" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="23"/>
+      <c r="B31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="C1:C7"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A1:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C29:C31"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="C21:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
